--- a/resistance_assay/20241121_Sink_Isolates_AR_22-6.xlsx
+++ b/resistance_assay/20241121_Sink_Isolates_AR_22-6.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tecan\Documents\Zhengqing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iridashyti/Documents/Duke_you_lab/sink_microbe_isolates/resistance_assay/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78B3EDE-EA49-F242-9D64-DAA1EE6C9EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="7290" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28660" windowHeight="17160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -26,12 +27,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Tecan</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -39,7 +40,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.9.1.0
 Tecan.At.Common.DocumentManagement, 3.9.1.0
@@ -96,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -104,7 +105,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">EHC, V_5.23_05/17_InfiniteRX (May  9 2017/12.19.53)
 MTP, V_5.23_05/17_InfiniteRX (May  9 2017/12.19.53)
@@ -121,12 +122,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Tecan</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -134,7 +135,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.9.1.0
 Tecan.At.Common.DocumentManagement, 3.9.1.0
@@ -191,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -199,7 +200,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">EHC, V_5.23_05/17_InfiniteRX (May  9 2017/12.19.53)
 MTP, V_5.23_05/17_InfiniteRX (May  9 2017/12.19.53)
@@ -216,12 +217,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Tecan</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -229,7 +230,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.9.1.0
 Tecan.At.Common.DocumentManagement, 3.9.1.0
@@ -286,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -294,7 +295,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">EHC, V_5.23_05/17_InfiniteRX (May  9 2017/12.19.53)
 MTP, V_5.23_05/17_InfiniteRX (May  9 2017/12.19.53)
@@ -311,7 +312,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="79">
   <si>
     <t>Application: Tecan i-control</t>
   </si>
@@ -553,7 +554,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -581,7 +582,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -668,13 +669,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Tecan.At.Excel.Attenuation" xfId="6"/>
-    <cellStyle name="Tecan.At.Excel.AutoGain_0" xfId="7"/>
-    <cellStyle name="Tecan.At.Excel.Error" xfId="1"/>
-    <cellStyle name="Tecan.At.Excel.GFactorAndMeasurementBlank" xfId="5"/>
-    <cellStyle name="Tecan.At.Excel.GFactorBlank" xfId="3"/>
-    <cellStyle name="Tecan.At.Excel.GFactorReference" xfId="4"/>
-    <cellStyle name="Tecan.At.Excel.MeasurementBlank" xfId="2"/>
+    <cellStyle name="Tecan.At.Excel.Attenuation" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Tecan.At.Excel.AutoGain_0" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Tecan.At.Excel.Error" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorAndMeasurementBlank" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorBlank" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorReference" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Tecan.At.Excel.MeasurementBlank" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -951,16 +952,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31:N37"/>
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -968,7 +969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -979,7 +980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -987,7 +988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -995,7 +996,7 @@
         <v>45618</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1003,7 +1004,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1011,7 +1012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1019,7 +1020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1027,12 +1028,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1052,7 +1053,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -1072,7 +1073,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -1092,12 +1093,12 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1105,7 +1106,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1116,7 +1117,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1127,7 +1128,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1135,7 +1136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1146,7 +1147,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>67</v>
       </c>
@@ -1154,7 +1155,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1162,12 +1163,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>36</v>
       </c>
@@ -1208,7 +1209,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>37</v>
       </c>
@@ -1252,7 +1253,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>38</v>
       </c>
@@ -1287,7 +1288,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>39</v>
       </c>
@@ -1322,7 +1323,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>40</v>
       </c>
@@ -1357,7 +1358,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>41</v>
       </c>
@@ -1392,7 +1393,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>42</v>
       </c>
@@ -1427,7 +1428,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>43</v>
       </c>
@@ -1462,7 +1463,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1477,16 +1478,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28:T35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1494,7 +1495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1505,7 +1506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1513,7 +1514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1521,7 +1522,7 @@
         <v>45617</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1529,7 +1530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1537,7 +1538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1545,7 +1546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1553,12 +1554,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1578,7 +1579,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -1598,7 +1599,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -1618,12 +1619,12 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1631,7 +1632,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1642,7 +1643,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1653,7 +1654,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1661,7 +1662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1672,7 +1673,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1680,7 +1681,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>35</v>
       </c>
@@ -1688,7 +1689,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>36</v>
       </c>
@@ -1738,7 +1739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>37</v>
       </c>
@@ -1794,18 +1795,18 @@
         <v>4.5099999755620956E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B31">
-        <v>1.1187000274658203</v>
+        <v>1.2532999515533401</v>
       </c>
       <c r="C31">
-        <v>1.2576999664306641</v>
+        <v>1.33109998703003</v>
       </c>
       <c r="D31">
-        <v>6.2300000339746475E-2</v>
+        <v>1.24049997329712</v>
       </c>
       <c r="E31">
         <v>4.8700001090764999E-2</v>
@@ -1844,16 +1845,16 @@
         <v>52</v>
       </c>
       <c r="R31">
-        <v>1.2532999515533447</v>
+        <v>1.2532999515533401</v>
       </c>
       <c r="S31">
-        <v>1.3310999870300293</v>
+        <v>1.33109998703003</v>
       </c>
       <c r="T31">
-        <v>1.2404999732971191</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.24049997329712</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
@@ -1912,7 +1913,7 @@
         <v>1.2639000415802002</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>40</v>
       </c>
@@ -1971,7 +1972,7 @@
         <v>5.1600001752376556E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>41</v>
       </c>
@@ -2027,7 +2028,7 @@
         <v>4.439999908208847E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
@@ -2071,7 +2072,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>43</v>
       </c>
@@ -2115,7 +2116,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>44</v>
       </c>
@@ -2156,7 +2157,7 @@
         <v>4.6999998390674591E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>51</v>
       </c>
@@ -2167,7 +2168,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2182,16 +2183,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C19" sqref="C9:K19"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2199,7 +2200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2210,7 +2211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2218,7 +2219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2226,7 +2227,7 @@
         <v>45617</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2234,7 +2235,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2242,7 +2243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2250,7 +2251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2258,12 +2259,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -2283,7 +2284,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -2303,7 +2304,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -2323,12 +2324,12 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2336,7 +2337,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -2347,7 +2348,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2358,7 +2359,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2366,7 +2367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2377,7 +2378,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2385,12 +2386,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>36</v>
       </c>
@@ -2430,8 +2431,11 @@
       <c r="M29" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="S29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>37</v>
       </c>
@@ -2474,19 +2478,28 @@
       <c r="N30" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="S30" s="4">
+        <v>10</v>
+      </c>
+      <c r="T30" s="4">
+        <v>11</v>
+      </c>
+      <c r="U30" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B31">
-        <v>1.1749999523162842</v>
+        <v>1.36650002002716</v>
       </c>
       <c r="C31">
-        <v>6.4499996602535248E-2</v>
+        <v>1.31319999694824</v>
       </c>
       <c r="D31">
-        <v>6.6100001335144043E-2</v>
+        <v>1.2639000415802</v>
       </c>
       <c r="E31">
         <v>1.0499000549316406</v>
@@ -2518,8 +2531,20 @@
       <c r="N31" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R31" t="s">
+        <v>51</v>
+      </c>
+      <c r="S31">
+        <v>4.5099999755620956E-2</v>
+      </c>
+      <c r="T31">
+        <v>4.3999999761581421E-2</v>
+      </c>
+      <c r="U31">
+        <v>4.5099999755620956E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
@@ -2562,8 +2587,23 @@
       <c r="N32" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q32" t="s">
+        <v>75</v>
+      </c>
+      <c r="R32" t="s">
+        <v>52</v>
+      </c>
+      <c r="S32">
+        <v>1.2532999515533401</v>
+      </c>
+      <c r="T32">
+        <v>1.33109998703003</v>
+      </c>
+      <c r="U32">
+        <v>1.24049997329712</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>40</v>
       </c>
@@ -2577,13 +2617,13 @@
         <v>4.439999908208847E-2</v>
       </c>
       <c r="E33">
-        <v>4.179999977350235E-2</v>
+        <v>5.07999993860722E-2</v>
       </c>
       <c r="F33">
-        <v>4.2399998754262924E-2</v>
+        <v>5.0500001758337E-2</v>
       </c>
       <c r="G33">
-        <v>0.45879998803138733</v>
+        <v>5.1600001752376598E-2</v>
       </c>
       <c r="H33">
         <v>4.5800000429153442E-2</v>
@@ -2606,8 +2646,23 @@
       <c r="N33" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q33" t="s">
+        <v>76</v>
+      </c>
+      <c r="R33" t="s">
+        <v>52</v>
+      </c>
+      <c r="S33">
+        <v>1.36650002002716</v>
+      </c>
+      <c r="T33">
+        <v>1.31319999694824</v>
+      </c>
+      <c r="U33">
+        <v>1.2639000415802</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>41</v>
       </c>
@@ -2650,8 +2705,23 @@
       <c r="N34" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q34" t="s">
+        <v>77</v>
+      </c>
+      <c r="R34" t="s">
+        <v>54</v>
+      </c>
+      <c r="S34">
+        <v>5.07999993860722E-2</v>
+      </c>
+      <c r="T34">
+        <v>5.0500001758337E-2</v>
+      </c>
+      <c r="U34">
+        <v>5.1600001752376598E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
@@ -2694,8 +2764,20 @@
       <c r="N35" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R35" t="s">
+        <v>51</v>
+      </c>
+      <c r="S35">
+        <v>4.439999908208847E-2</v>
+      </c>
+      <c r="T35">
+        <v>4.3800000101327896E-2</v>
+      </c>
+      <c r="U35">
+        <v>4.439999908208847E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>43</v>
       </c>
@@ -2739,7 +2821,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>44</v>
       </c>
@@ -2780,7 +2862,7 @@
         <v>4.6700000762939453E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>51</v>
       </c>
@@ -2791,7 +2873,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
